--- a/Gráficos diversos/Evelyn/ELISA_OD50.xlsx
+++ b/Gráficos diversos/Evelyn/ELISA_OD50.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
   <si>
     <t>Exp1</t>
   </si>
@@ -1014,13 +1014,13 @@
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
+      <c r="D8" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>3</v>
@@ -1028,8 +1028,8 @@
       <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
@@ -1044,7 +1044,7 @@
         <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>5</v>
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>22</v>
@@ -1074,7 +1074,7 @@
         <v>22</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>23</v>
@@ -1088,7 +1088,9 @@
       <c r="Z8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -1113,7 +1115,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="C9" s="3">
         <v>25.0</v>
@@ -1125,69 +1127,71 @@
         <v>25.0</v>
       </c>
       <c r="F9" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="G9" s="3">
         <v>113.0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>49.0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>25.0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>94.0</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>85.0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>114.0</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>89.0</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>101.0</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>151.0</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>280.0</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>59.0</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>149.0</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>25.0</v>
       </c>
-      <c r="S9" s="5">
+      <c r="T9" s="5">
         <v>72.0</v>
       </c>
-      <c r="T9" s="5">
+      <c r="U9" s="5">
         <v>82.0</v>
       </c>
-      <c r="U9" s="5">
+      <c r="V9" s="5">
         <v>81.0</v>
       </c>
-      <c r="V9" s="5">
+      <c r="W9" s="5">
         <v>280.0</v>
       </c>
-      <c r="W9" s="5">
+      <c r="X9" s="5">
         <v>25.0</v>
       </c>
-      <c r="X9" s="5">
+      <c r="Y9" s="5">
         <v>108.0</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Z9" s="5">
         <v>75.0</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="AA9" s="5">
         <v>65.0</v>
       </c>
-      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -1212,81 +1216,83 @@
         <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="C10" s="3">
         <v>25.0</v>
       </c>
       <c r="D10" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="E10" s="3">
         <v>345.0</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>93.0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7189.0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>39.0</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>134.0</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>361.0</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>69.0</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>215.0</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>468.0</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>213.0</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>408.0</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>699.0</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>95.0</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>8403.0</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S10" s="5">
         <v>1208.0</v>
       </c>
-      <c r="S10" s="5">
+      <c r="T10" s="5">
         <v>3156.0</v>
       </c>
-      <c r="T10" s="5">
+      <c r="U10" s="5">
         <v>6936.0</v>
       </c>
-      <c r="U10" s="5">
+      <c r="V10" s="5">
         <v>2208.0</v>
       </c>
-      <c r="V10" s="5">
+      <c r="W10" s="5">
         <v>1385.0</v>
       </c>
-      <c r="W10" s="5">
+      <c r="X10" s="5">
         <v>5054.0</v>
       </c>
-      <c r="X10" s="5">
+      <c r="Y10" s="5">
         <v>3622.0</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Z10" s="5">
         <v>2438.0</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="AA10" s="5">
         <v>1747.0</v>
       </c>
-      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -1311,81 +1317,83 @@
         <v>21</v>
       </c>
       <c r="B11" s="3">
-        <v>25.0</v>
+        <v>35.0</v>
       </c>
       <c r="C11" s="3">
         <v>25.0</v>
       </c>
       <c r="D11" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="E11" s="3">
         <v>149.0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>25.0</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>693.0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>33.0</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>292.0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>245.0</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>106.0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <v>142.0</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>378.0</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>362.0</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>331.0</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>562.0</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>5072.0</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <v>8023.0</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <v>1519.0</v>
       </c>
-      <c r="S11" s="5">
+      <c r="T11" s="5">
         <v>6452.0</v>
       </c>
-      <c r="T11" s="5">
+      <c r="U11" s="5">
         <v>1118.0</v>
       </c>
-      <c r="U11" s="5">
+      <c r="V11" s="5">
         <v>2402.0</v>
       </c>
-      <c r="V11" s="5">
+      <c r="W11" s="5">
         <v>12002.0</v>
       </c>
-      <c r="W11" s="5">
+      <c r="X11" s="5">
         <v>1803.0</v>
       </c>
-      <c r="X11" s="5">
+      <c r="Y11" s="5">
         <v>5043.0</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Z11" s="5">
         <v>206.0</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AA11" s="5">
         <v>7067.0</v>
       </c>
-      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -1410,81 +1418,83 @@
         <v>21</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="O12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="Q12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="R12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="S12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="T12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="U12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="V12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="6" t="s">
+      <c r="W12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="W12" s="6" t="s">
+      <c r="X12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="X12" s="6" t="s">
+      <c r="Y12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="6" t="s">
+      <c r="Z12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Z12" s="6" t="s">
+      <c r="AA12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
